--- a/mass_producer/道具.xlsx
+++ b/mass_producer/道具.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifeichen/WorkSpace/GithubRepos/Wizard-s-Deck/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifeichen/WorkSpace/GithubRepos/Wizard-s-Deck/mass_producer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DB3DC5-B50B-0A43-845A-BAE4A2D2EEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80510D46-12FA-4347-B0AC-7FD54161E841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{3BF7CB31-8F00-C64B-B9C2-FCDCDCD1B3B5}"/>
+    <workbookView xWindow="4660" yWindow="3820" windowWidth="28040" windowHeight="17260" xr2:uid="{3BF7CB31-8F00-C64B-B9C2-FCDCDCD1B3B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>编号</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>休息休息休息</t>
+  </si>
+  <si>
+    <t>风</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB528D49-689B-3B40-B5B8-1B1C9578CC5F}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,6 +513,35 @@
         <v>114514</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>114514</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>114514</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/mass_producer/道具.xlsx
+++ b/mass_producer/道具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifeichen/WorkSpace/GithubRepos/Wizard-s-Deck/mass_producer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80510D46-12FA-4347-B0AC-7FD54161E841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F0C8AC-953C-354A-9F0C-3F39350277BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="3820" windowWidth="28040" windowHeight="17260" xr2:uid="{3BF7CB31-8F00-C64B-B9C2-FCDCDCD1B3B5}"/>
+    <workbookView xWindow="1360" yWindow="1860" windowWidth="28040" windowHeight="17260" xr2:uid="{3BF7CB31-8F00-C64B-B9C2-FCDCDCD1B3B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>test</t>
   </si>
   <si>
-    <t>传奇道具</t>
-  </si>
-  <si>
     <t>114514水</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>风</t>
+  </si>
+  <si>
+    <t>道具</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,19 +495,19 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
       <c r="I2">
         <v>114514</v>
@@ -518,25 +518,25 @@
         <v>114514</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
       <c r="I3">
         <v>114514</v>
